--- a/Exercises/perfect_best_friend.xlsx
+++ b/Exercises/perfect_best_friend.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Mixtape_tracks/Assignments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Google Drive\Martin\Estudios\Doctorado\Permanent Education\Causal Inference\biblio\github\Causal-Inference\Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31336C30-B62D-274E-9AB5-8CDB50E8F1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FEE53D-05E6-4D49-A464-62D5B14A3AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="5000" windowWidth="27240" windowHeight="16440" xr2:uid="{4068093D-C091-904A-9949-E624A27E3E44}"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{4068093D-C091-904A-9949-E624A27E3E44}"/>
   </bookViews>
   <sheets>
     <sheet name="Perfect best friend" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Person</t>
   </si>
@@ -98,13 +100,85 @@
   </si>
   <si>
     <t>heterogenous treatment effect bias</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Calculate individual TE</t>
+  </si>
+  <si>
+    <t>Perfect best-friend</t>
+  </si>
+  <si>
+    <t>colD</t>
+  </si>
+  <si>
+    <t>colE</t>
+  </si>
+  <si>
+    <t>colC - colB</t>
+  </si>
+  <si>
+    <t>if(colD&gt;0,1,0)</t>
+  </si>
+  <si>
+    <t>Calculate share treated</t>
+  </si>
+  <si>
+    <t>Apply switching equation</t>
+  </si>
+  <si>
+    <t>5a</t>
+  </si>
+  <si>
+    <t>5b</t>
+  </si>
+  <si>
+    <t>5c</t>
+  </si>
+  <si>
+    <t>5d</t>
+  </si>
+  <si>
+    <t>ATT</t>
+  </si>
+  <si>
+    <t>ATU</t>
+  </si>
+  <si>
+    <t>Selection bias</t>
+  </si>
+  <si>
+    <t>Decomposition of SDO</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>B17</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>B22</t>
+  </si>
+  <si>
+    <t>row17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,6 +188,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -165,22 +246,57 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -492,198 +608,471 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AF4099-E0B6-D34B-85C1-27696FA64E79}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="11">
         <v>10</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="12">
         <v>10</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D2" s="5">
+        <f>C2-B2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <f>IF(D2&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <f>(E2*C2)+(1-E2)*B2</f>
+        <v>10</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="11">
         <v>15</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="12">
         <v>15</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D13" si="0">C3-B3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E13" si="1">IF(D3&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F13" si="2">(E3*C3)+(1-E3)*B3</f>
+        <v>15</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="11">
         <v>10</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="12">
         <v>12</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="11">
         <v>8</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="12">
         <v>11</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="11">
         <v>6</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="12">
         <v>9</v>
       </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="11">
         <v>15</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="12">
         <v>11</v>
       </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="11">
         <v>5</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="12">
         <v>7</v>
       </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="11">
         <v>13</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="12">
         <v>11</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="11">
         <v>15</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="12">
         <v>6</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="11">
         <v>11</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="12">
         <v>9</v>
       </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="11">
         <v>10</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="12">
         <v>13</v>
       </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="11">
         <v>15</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="12">
         <v>15</v>
       </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E14" s="13">
+        <f>AVERAGE(E2:E13)</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <f>AVERAGEIF(E2:E13,1,F2:F13)-AVERAGEIF(E2:E13,0,F2:F13)</f>
+        <v>-3.0285714285714285</v>
+      </c>
+      <c r="B17" s="14">
+        <f>AVERAGE(D2:D13)</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="C17" s="14">
+        <f>AVERAGEIF(E2:E13,1,B2:B13)-AVERAGEIF(E2:E13,0,B2:B13)</f>
+        <v>-5.628571428571429</v>
+      </c>
+      <c r="D17" s="14">
+        <f>(1-E14)*(B20-B22)</f>
+        <v>2.9333333333333327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="15">
+        <f>AVERAGEIF(E2:E13,1,D2:D13)</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="14">
+        <f>AVERAGEIF(E2:E13,0,D2:D13)</f>
+        <v>-2.4285714285714284</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>